--- a/upload/soil-user.xlsx
+++ b/upload/soil-user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyProjects\Demeter\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62763AE5-6481-44F3-BE39-CF0886780EA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8F250-2449-4A22-B7C6-1BC9BE01C9E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO101"/>
+  <dimension ref="A1:AN101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -391,7 +391,7 @@
     <col min="39" max="39" width="9.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1.2544979999999999</v>
       </c>
@@ -512,11 +512,8 @@
       <c r="AN1">
         <v>0.132716</v>
       </c>
-      <c r="AO1" s="1">
-        <v>17.690000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.3885190000000001</v>
       </c>
@@ -637,11 +634,8 @@
       <c r="AN2">
         <v>0.154945</v>
       </c>
-      <c r="AO2" s="1">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:40" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.6891</v>
       </c>
@@ -762,11 +756,8 @@
       <c r="AN3">
         <v>0.148502</v>
       </c>
-      <c r="AO3" s="1">
-        <v>17.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.825504</v>
       </c>
@@ -887,11 +878,8 @@
       <c r="AN4">
         <v>0.49399199999999999</v>
       </c>
-      <c r="AO4" s="1">
-        <v>19.97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.464232</v>
       </c>
@@ -1012,41 +1000,38 @@
       <c r="AN5">
         <v>0.151724</v>
       </c>
-      <c r="AO5" s="1">
-        <v>32.130000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
